--- a/case2_220316/output_v1.0_220320.xlsx
+++ b/case2_220316/output_v1.0_220320.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="98">
   <si>
     <t>ASSUMPTION</t>
   </si>
   <si>
-    <t>Written at: 2022.03.20 07:46:49</t>
+    <t>Written at: 2022.03.20 20:10:20</t>
   </si>
   <si>
     <t>output_v1.0_220320.xlsx</t>
@@ -284,6 +284,33 @@
   </si>
   <si>
     <t>sales</t>
+  </si>
+  <si>
+    <t>Total amt</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>subtotal</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>fob</t>
+  </si>
+  <si>
+    <t>arngfee</t>
+  </si>
+  <si>
+    <t>주관수수료</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -646,7 +673,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7851,13 +7878,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7889,6 +7916,360 @@
         <v>117000</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2">
+        <v>66699.99999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2">
+        <v>66699.99999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2000.166666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="2">
+        <v>159.0833333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3359.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5551.999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6245.999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="2">
+        <v>106803.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
